--- a/db/static/demo_data/screen_10_screenresult.xlsx
+++ b/db/static/demo_data/screen_10_screenresult.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4879" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4867" uniqueCount="403">
   <si>
     <t xml:space="preserve">Screen Number</t>
   </si>
@@ -1687,7 +1687,7 @@
   <dimension ref="A1:L961"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12463,13 +12463,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
         <v>401</v>
       </c>
       <c r="B339" s="0" t="s">
         <v>92</v>
       </c>
+      <c r="C339" s="0" t="s">
+        <v>93</v>
+      </c>
       <c r="E339" s="0" t="n">
         <v>449702</v>
       </c>
@@ -12485,23 +12488,17 @@
       <c r="I339" s="0" t="n">
         <v>0.61</v>
       </c>
-      <c r="J339" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="K339" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="L339" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
         <v>401</v>
       </c>
       <c r="B340" s="0" t="s">
         <v>94</v>
       </c>
+      <c r="C340" s="0" t="s">
+        <v>95</v>
+      </c>
       <c r="E340" s="0" t="n">
         <v>473200</v>
       </c>
@@ -12517,23 +12514,17 @@
       <c r="I340" s="0" t="n">
         <v>0.72</v>
       </c>
-      <c r="J340" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K340" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L340" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
         <v>401</v>
       </c>
       <c r="B341" s="0" t="s">
         <v>96</v>
       </c>
+      <c r="C341" s="0" t="s">
+        <v>97</v>
+      </c>
       <c r="E341" s="0" t="n">
         <v>119018</v>
       </c>
@@ -12548,15 +12539,6 @@
       </c>
       <c r="I341" s="0" t="n">
         <v>0.165</v>
-      </c>
-      <c r="J341" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K341" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L341" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22697,13 +22679,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
         <v>402</v>
       </c>
       <c r="B659" s="0" t="s">
         <v>92</v>
       </c>
+      <c r="C659" s="0" t="s">
+        <v>93</v>
+      </c>
       <c r="E659" s="0" t="n">
         <v>518514</v>
       </c>
@@ -22719,23 +22704,17 @@
       <c r="I659" s="0" t="n">
         <v>0.84</v>
       </c>
-      <c r="J659" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="K659" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="L659" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
         <v>402</v>
       </c>
       <c r="B660" s="0" t="s">
         <v>94</v>
       </c>
+      <c r="C660" s="0" t="s">
+        <v>95</v>
+      </c>
       <c r="E660" s="0" t="n">
         <v>496750</v>
       </c>
@@ -22751,23 +22730,17 @@
       <c r="I660" s="0" t="n">
         <v>0.845</v>
       </c>
-      <c r="J660" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K660" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L660" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
         <v>402</v>
       </c>
       <c r="B661" s="0" t="s">
         <v>96</v>
       </c>
+      <c r="C661" s="0" t="s">
+        <v>97</v>
+      </c>
       <c r="E661" s="0" t="n">
         <v>549332</v>
       </c>
@@ -22782,15 +22755,6 @@
       </c>
       <c r="I661" s="0" t="n">
         <v>1.015</v>
-      </c>
-      <c r="J661" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K661" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L661" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
